--- a/Graphs/feed_temp_sweep_results.xlsx
+++ b/Graphs/feed_temp_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="180" uniqueCount="126">
   <si>
     <t>Lh2 Feed pressure (bar)_ 1</t>
   </si>
@@ -175,6 +175,222 @@
   </si>
   <si>
     <t>LH2 consumed(kg)_18</t>
+  </si>
+  <si>
+    <t>LH2 Feed temperature (K)_1</t>
+  </si>
+  <si>
+    <t>LH2 Feed temperature (K)_2</t>
+  </si>
+  <si>
+    <t>LH2 Feed temperature (K)_3</t>
+  </si>
+  <si>
+    <t>LH2 Feed temperature (K)_4</t>
+  </si>
+  <si>
+    <t>LH2 Feed temperature (K)_5</t>
+  </si>
+  <si>
+    <t>LH2 Feed temperature (K)_6</t>
+  </si>
+  <si>
+    <t>LH2 Feed temperature (K)_7</t>
+  </si>
+  <si>
+    <t>LH2 Feed temperature (K)_8</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_8</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_1</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_2</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_3</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_4</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_5</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_6</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_7</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_8</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_1</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_2</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_3</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_4</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_5</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_6</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_7</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_8</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_1</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_2</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_3</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_4</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_5</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_6</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_7</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_8</t>
   </si>
 </sst>
 </file>
@@ -220,394 +436,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BT2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="true"/>
-    <col min="2" max="2" width="24.28515625" customWidth="true"/>
-    <col min="3" max="3" width="24.28515625" customWidth="true"/>
-    <col min="4" max="4" width="24.28515625" customWidth="true"/>
-    <col min="5" max="5" width="24.28515625" customWidth="true"/>
-    <col min="6" max="6" width="24.28515625" customWidth="true"/>
-    <col min="7" max="7" width="24.28515625" customWidth="true"/>
-    <col min="8" max="8" width="24.28515625" customWidth="true"/>
-    <col min="9" max="9" width="24.28515625" customWidth="true"/>
-    <col min="10" max="10" width="24.85546875" customWidth="true"/>
-    <col min="11" max="11" width="24.85546875" customWidth="true"/>
-    <col min="12" max="12" width="24.85546875" customWidth="true"/>
-    <col min="13" max="13" width="24.85546875" customWidth="true"/>
-    <col min="14" max="14" width="24.85546875" customWidth="true"/>
-    <col min="15" max="15" width="24.85546875" customWidth="true"/>
-    <col min="16" max="16" width="24.85546875" customWidth="true"/>
-    <col min="17" max="17" width="24.85546875" customWidth="true"/>
-    <col min="18" max="18" width="24.85546875" customWidth="true"/>
-    <col min="19" max="19" width="34.7109375" customWidth="true"/>
-    <col min="20" max="20" width="34.7109375" customWidth="true"/>
-    <col min="21" max="21" width="34.7109375" customWidth="true"/>
-    <col min="22" max="22" width="34.7109375" customWidth="true"/>
-    <col min="23" max="23" width="34.7109375" customWidth="true"/>
-    <col min="24" max="24" width="34.7109375" customWidth="true"/>
-    <col min="25" max="25" width="34.7109375" customWidth="true"/>
-    <col min="26" max="26" width="34.7109375" customWidth="true"/>
-    <col min="27" max="27" width="34.7109375" customWidth="true"/>
-    <col min="28" max="28" width="35.28515625" customWidth="true"/>
-    <col min="29" max="29" width="35.28515625" customWidth="true"/>
-    <col min="30" max="30" width="35.28515625" customWidth="true"/>
-    <col min="31" max="31" width="35.28515625" customWidth="true"/>
-    <col min="32" max="32" width="35.28515625" customWidth="true"/>
-    <col min="33" max="33" width="35.28515625" customWidth="true"/>
-    <col min="34" max="34" width="35.28515625" customWidth="true"/>
-    <col min="35" max="35" width="35.28515625" customWidth="true"/>
-    <col min="36" max="36" width="35.28515625" customWidth="true"/>
-    <col min="37" max="37" width="19.7109375" customWidth="true"/>
-    <col min="38" max="38" width="19.7109375" customWidth="true"/>
-    <col min="39" max="39" width="19.7109375" customWidth="true"/>
-    <col min="40" max="40" width="19.7109375" customWidth="true"/>
-    <col min="41" max="41" width="19.7109375" customWidth="true"/>
-    <col min="42" max="42" width="19.7109375" customWidth="true"/>
-    <col min="43" max="43" width="19.7109375" customWidth="true"/>
-    <col min="44" max="44" width="19.7109375" customWidth="true"/>
-    <col min="45" max="45" width="19.7109375" customWidth="true"/>
-    <col min="46" max="46" width="20.28515625" customWidth="true"/>
-    <col min="47" max="47" width="20.28515625" customWidth="true"/>
-    <col min="48" max="48" width="20.28515625" customWidth="true"/>
-    <col min="49" max="49" width="20.28515625" customWidth="true"/>
-    <col min="50" max="50" width="20.28515625" customWidth="true"/>
-    <col min="51" max="51" width="20.28515625" customWidth="true"/>
-    <col min="52" max="52" width="20.28515625" customWidth="true"/>
-    <col min="53" max="53" width="20.28515625" customWidth="true"/>
-    <col min="54" max="54" width="20.28515625" customWidth="true"/>
+    <col min="1" max="1" width="25.85546875" customWidth="true"/>
+    <col min="2" max="2" width="25.85546875" customWidth="true"/>
+    <col min="3" max="3" width="25.85546875" customWidth="true"/>
+    <col min="4" max="4" width="25.85546875" customWidth="true"/>
+    <col min="5" max="5" width="25.85546875" customWidth="true"/>
+    <col min="6" max="6" width="25.85546875" customWidth="true"/>
+    <col min="7" max="7" width="25.85546875" customWidth="true"/>
+    <col min="8" max="8" width="25.85546875" customWidth="true"/>
+    <col min="9" max="9" width="35.28515625" customWidth="true"/>
+    <col min="10" max="10" width="35.28515625" customWidth="true"/>
+    <col min="11" max="11" width="35.28515625" customWidth="true"/>
+    <col min="12" max="12" width="35.28515625" customWidth="true"/>
+    <col min="13" max="13" width="35.28515625" customWidth="true"/>
+    <col min="14" max="14" width="35.28515625" customWidth="true"/>
+    <col min="15" max="15" width="35.28515625" customWidth="true"/>
+    <col min="16" max="16" width="35.28515625" customWidth="true"/>
+    <col min="17" max="17" width="33.85546875" customWidth="true"/>
+    <col min="18" max="18" width="33.85546875" customWidth="true"/>
+    <col min="19" max="19" width="33.85546875" customWidth="true"/>
+    <col min="20" max="20" width="33.85546875" customWidth="true"/>
+    <col min="21" max="21" width="33.85546875" customWidth="true"/>
+    <col min="22" max="22" width="33.85546875" customWidth="true"/>
+    <col min="23" max="23" width="33.85546875" customWidth="true"/>
+    <col min="24" max="24" width="33.85546875" customWidth="true"/>
+    <col min="25" max="25" width="40.7109375" customWidth="true"/>
+    <col min="26" max="26" width="40.7109375" customWidth="true"/>
+    <col min="27" max="27" width="40.7109375" customWidth="true"/>
+    <col min="28" max="28" width="40.7109375" customWidth="true"/>
+    <col min="29" max="29" width="40.7109375" customWidth="true"/>
+    <col min="30" max="30" width="40.7109375" customWidth="true"/>
+    <col min="31" max="31" width="40.7109375" customWidth="true"/>
+    <col min="32" max="32" width="40.7109375" customWidth="true"/>
+    <col min="33" max="33" width="34" customWidth="true"/>
+    <col min="34" max="34" width="34" customWidth="true"/>
+    <col min="35" max="35" width="34" customWidth="true"/>
+    <col min="36" max="36" width="34" customWidth="true"/>
+    <col min="37" max="37" width="34" customWidth="true"/>
+    <col min="38" max="38" width="34" customWidth="true"/>
+    <col min="39" max="39" width="34" customWidth="true"/>
+    <col min="40" max="40" width="34" customWidth="true"/>
+    <col min="41" max="41" width="32.5703125" customWidth="true"/>
+    <col min="42" max="42" width="32.5703125" customWidth="true"/>
+    <col min="43" max="43" width="32.5703125" customWidth="true"/>
+    <col min="44" max="44" width="32.5703125" customWidth="true"/>
+    <col min="45" max="45" width="32.5703125" customWidth="true"/>
+    <col min="46" max="46" width="32.5703125" customWidth="true"/>
+    <col min="47" max="47" width="32.5703125" customWidth="true"/>
+    <col min="48" max="48" width="32.5703125" customWidth="true"/>
+    <col min="49" max="49" width="39.42578125" customWidth="true"/>
+    <col min="50" max="50" width="39.42578125" customWidth="true"/>
+    <col min="51" max="51" width="39.42578125" customWidth="true"/>
+    <col min="52" max="52" width="39.42578125" customWidth="true"/>
+    <col min="53" max="53" width="39.42578125" customWidth="true"/>
+    <col min="54" max="54" width="39.42578125" customWidth="true"/>
+    <col min="55" max="55" width="39.42578125" customWidth="true"/>
+    <col min="56" max="56" width="39.42578125" customWidth="true"/>
+    <col min="57" max="57" width="34.28515625" customWidth="true"/>
+    <col min="58" max="58" width="34.28515625" customWidth="true"/>
+    <col min="59" max="59" width="34.28515625" customWidth="true"/>
+    <col min="60" max="60" width="34.28515625" customWidth="true"/>
+    <col min="61" max="61" width="34.28515625" customWidth="true"/>
+    <col min="62" max="62" width="34.28515625" customWidth="true"/>
+    <col min="63" max="63" width="34.28515625" customWidth="true"/>
+    <col min="64" max="64" width="34.28515625" customWidth="true"/>
+    <col min="65" max="65" width="33" customWidth="true"/>
+    <col min="66" max="66" width="33" customWidth="true"/>
+    <col min="67" max="67" width="33" customWidth="true"/>
+    <col min="68" max="68" width="33" customWidth="true"/>
+    <col min="69" max="69" width="33" customWidth="true"/>
+    <col min="70" max="70" width="33" customWidth="true"/>
+    <col min="71" max="71" width="33" customWidth="true"/>
+    <col min="72" max="72" width="33" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>53</v>
+        <v>107</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD1" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="BS1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BT1" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>18.157894736842106</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="B2" s="0">
-        <v>18.315789473684209</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="C2" s="0">
-        <v>18.473684210526315</v>
+        <v>19</v>
       </c>
       <c r="D2" s="0">
-        <v>18.631578947368421</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="E2" s="0">
-        <v>18.789473684210527</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0">
-        <v>18.94736842105263</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="G2" s="0">
-        <v>19.105263157894736</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="H2" s="0">
-        <v>19.263157894736842</v>
+        <v>21</v>
       </c>
       <c r="I2" s="0">
-        <v>19.578947368421051</v>
+        <v>33.236916680673971</v>
       </c>
       <c r="J2" s="0">
-        <v>19.736842105263158</v>
+        <v>33.295532912991668</v>
       </c>
       <c r="K2" s="0">
-        <v>19.894736842105264</v>
+        <v>33.187829200973979</v>
       </c>
       <c r="L2" s="0">
-        <v>20.05263157894737</v>
+        <v>33.088328492050287</v>
       </c>
       <c r="M2" s="0">
-        <v>20.210526315789473</v>
+        <v>33.098136840673291</v>
       </c>
       <c r="N2" s="0">
-        <v>20.368421052631579</v>
+        <v>33.220313625917164</v>
       </c>
       <c r="O2" s="0">
-        <v>20.526315789473685</v>
+        <v>33.405936678605471</v>
       </c>
       <c r="P2" s="0">
-        <v>20.684210526315788</v>
+        <v>33.408287671207482</v>
       </c>
       <c r="Q2" s="0">
-        <v>20.842105263157894</v>
+        <v>16.26654633271772</v>
       </c>
       <c r="R2" s="0">
-        <v>21</v>
+        <v>16.37153640665068</v>
       </c>
       <c r="S2" s="0">
-        <v>296</v>
+        <v>16.361864964309575</v>
       </c>
       <c r="T2" s="0">
+        <v>16.397656881706492</v>
+      </c>
+      <c r="U2" s="0">
+        <v>16.487995235491564</v>
+      </c>
+      <c r="V2" s="0">
+        <v>16.504306832279589</v>
+      </c>
+      <c r="W2" s="0">
+        <v>16.460178870819522</v>
+      </c>
+      <c r="X2" s="0">
+        <v>16.344611557934289</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>0.4894120140264428</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>0.49170369038492334</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>0.49300798992389039</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>0.49557223434982972</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>0.4981547848104238</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>0.49681369712908391</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>0.4927321460607717</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>0.48923823090821533</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>29.777068859938915</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>29.77974786286434</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>29.874797603636665</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>29.890349386011486</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>29.944112402738824</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>29.887977165623333</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>29.841211148085293</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>30.037327184764109</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>14.515366293396971</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>14.58250857592491</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>14.735685327337022</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>14.804133988138128</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>14.895251916273288</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>14.864802335752783</v>
+      </c>
+      <c r="AU2" s="0">
+        <v>14.830908706042106</v>
+      </c>
+      <c r="AV2" s="0">
+        <v>15.010912699352673</v>
+      </c>
+      <c r="AW2" s="0">
+        <v>0.48746793586945242</v>
+      </c>
+      <c r="AX2" s="0">
+        <v>0.48967871195811741</v>
+      </c>
+      <c r="AY2" s="0">
+        <v>0.49324803879318141</v>
+      </c>
+      <c r="AZ2" s="0">
+        <v>0.4952813965790035</v>
+      </c>
+      <c r="BA2" s="0">
+        <v>0.49743507892092009</v>
+      </c>
+      <c r="BB2" s="0">
+        <v>0.49735056519147897</v>
+      </c>
+      <c r="BC2" s="0">
+        <v>0.4969941947880257</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>0.49974195796511106</v>
+      </c>
+      <c r="BE2" s="0">
         <v>297</v>
       </c>
-      <c r="U2" s="0">
-        <v>297.5</v>
-      </c>
-      <c r="V2" s="0">
-        <v>298</v>
-      </c>
-      <c r="W2" s="0">
+      <c r="BF2" s="0">
         <v>298.5</v>
       </c>
-      <c r="X2" s="0">
+      <c r="BG2" s="0">
         <v>299.5</v>
       </c>
-      <c r="Y2" s="0">
-        <v>299</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>300</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>301</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>302</v>
-      </c>
-      <c r="AC2" s="0">
+      <c r="BH2" s="0">
+        <v>301.5</v>
+      </c>
+      <c r="BI2" s="0">
         <v>302.5</v>
       </c>
-      <c r="AD2" s="0">
-        <v>302.5</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>303</v>
-      </c>
-      <c r="AF2" s="0">
+      <c r="BJ2" s="0">
         <v>303.5</v>
       </c>
-      <c r="AG2" s="0">
-        <v>303.5</v>
-      </c>
-      <c r="AH2" s="0">
+      <c r="BK2" s="0">
         <v>304.5</v>
       </c>
-      <c r="AI2" s="0">
-        <v>304.5</v>
-      </c>
-      <c r="AJ2" s="0">
+      <c r="BL2" s="0">
         <v>305</v>
       </c>
-      <c r="AK2" s="0">
-        <v>33.162504698157747</v>
-      </c>
-      <c r="AL2" s="0">
-        <v>33.137386412134425</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>33.244846092354628</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>33.216207112005826</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>33.179926987832921</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>33.259767544680365</v>
-      </c>
-      <c r="AQ2" s="0">
-        <v>32.989086454326646</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>33.150201583653931</v>
-      </c>
-      <c r="AS2" s="0">
-        <v>33.005990186121885</v>
-      </c>
-      <c r="AT2" s="0">
-        <v>33.012067595830466</v>
-      </c>
-      <c r="AU2" s="0">
-        <v>33.163639403433351</v>
-      </c>
-      <c r="AV2" s="0">
-        <v>33.063932804390937</v>
-      </c>
-      <c r="AW2" s="0">
-        <v>33.247397363342095</v>
-      </c>
-      <c r="AX2" s="0">
-        <v>33.210671703087264</v>
-      </c>
-      <c r="AY2" s="0">
-        <v>33.179410819213317</v>
-      </c>
-      <c r="AZ2" s="0">
-        <v>33.401506495924146</v>
-      </c>
-      <c r="BA2" s="0">
-        <v>33.393862597091065</v>
-      </c>
-      <c r="BB2" s="0">
-        <v>33.408287671207482</v>
+      <c r="BM2" s="0">
+        <v>263.5</v>
+      </c>
+      <c r="BN2" s="0">
+        <v>265</v>
+      </c>
+      <c r="BO2" s="0">
+        <v>266.5</v>
+      </c>
+      <c r="BP2" s="0">
+        <v>268.5</v>
+      </c>
+      <c r="BQ2" s="0">
+        <v>269</v>
+      </c>
+      <c r="BR2" s="0">
+        <v>270</v>
+      </c>
+      <c r="BS2" s="0">
+        <v>270.5</v>
+      </c>
+      <c r="BT2" s="0">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/feed_temp_sweep_results.xlsx
+++ b/Graphs/feed_temp_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="9">
   <si>
     <t>LH2 Feed temperature (K)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="21.59765625" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,89 +133,89 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>18.333333333333332</v>
+        <v>0.01</v>
       </c>
       <c r="B2" s="0">
-        <v>33.236916680673971</v>
+        <v>32.447837977294029</v>
       </c>
       <c r="C2" s="0">
-        <v>16.26654633271772</v>
+        <v>15.983216035754685</v>
       </c>
       <c r="D2" s="0">
-        <v>0.4894120140264428</v>
+        <v>0.49258184927264598</v>
       </c>
       <c r="E2" s="0">
-        <v>29.777068859938915</v>
+        <v>31.392631591000779</v>
       </c>
       <c r="F2" s="0">
-        <v>14.515366293396971</v>
+        <v>14.751070143845119</v>
       </c>
       <c r="G2" s="0">
-        <v>0.48746793586945242</v>
+        <v>0.46988956950247396</v>
       </c>
       <c r="H2" s="0">
-        <v>297</v>
+        <v>510.10000000000002</v>
       </c>
       <c r="I2" s="0">
-        <v>263.5</v>
+        <v>479.69999999999993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>18.666666666666668</v>
+        <v>0.055000000000000007</v>
       </c>
       <c r="B3" s="0">
-        <v>33.295532912991668</v>
+        <v>33.066455269485182</v>
       </c>
       <c r="C3" s="0">
-        <v>16.37153640665068</v>
+        <v>16.156579950853445</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49170369038492334</v>
+        <v>0.48860937222270906</v>
       </c>
       <c r="E3" s="0">
-        <v>29.77974786286434</v>
+        <v>29.433115708657851</v>
       </c>
       <c r="F3" s="0">
-        <v>14.58250857592491</v>
+        <v>14.019504130634449</v>
       </c>
       <c r="G3" s="0">
-        <v>0.48967871195811741</v>
+        <v>0.47631736542626929</v>
       </c>
       <c r="H3" s="0">
-        <v>298.5</v>
+        <v>271.30000000000001</v>
       </c>
       <c r="I3" s="0">
-        <v>265</v>
+        <v>240.10000000000002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>19</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="B4" s="0">
-        <v>33.187829200973979</v>
+        <v>33.428327833143939</v>
       </c>
       <c r="C4" s="0">
-        <v>16.361864964309575</v>
+        <v>16.04992266498996</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49300798992389039</v>
+        <v>0.48012939041110458</v>
       </c>
       <c r="E4" s="0">
-        <v>29.874797603636665</v>
+        <v>29.85476044020924</v>
       </c>
       <c r="F4" s="0">
-        <v>14.735685327337022</v>
+        <v>14.995006254825931</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49324803879318141</v>
+        <v>0.50226516755533002</v>
       </c>
       <c r="H4" s="0">
-        <v>299.5</v>
+        <v>232.80000000000001</v>
       </c>
       <c r="I4" s="0">
-        <v>266.5</v>
+        <v>203.59999999999997</v>
       </c>
     </row>
     <row r="5">

--- a/Graphs/feed_temp_sweep_results.xlsx
+++ b/Graphs/feed_temp_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="9">
   <si>
     <t>LH2 Feed temperature (K)</t>
   </si>
@@ -85,21 +85,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,89 +133,89 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.01</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0">
-        <v>32.447837977294029</v>
+        <v>32.660314121284053</v>
       </c>
       <c r="C2" s="0">
-        <v>15.983216035754685</v>
+        <v>15.937956516101927</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49258184927264598</v>
+        <v>0.4879915256453547</v>
       </c>
       <c r="E2" s="0">
-        <v>31.392631591000779</v>
+        <v>29.293505996004292</v>
       </c>
       <c r="F2" s="0">
-        <v>14.751070143845119</v>
+        <v>14.207239143056405</v>
       </c>
       <c r="G2" s="0">
-        <v>0.46988956950247396</v>
+        <v>0.48499620171768815</v>
       </c>
       <c r="H2" s="0">
-        <v>510.10000000000002</v>
+        <v>292.94336223807994</v>
       </c>
       <c r="I2" s="0">
-        <v>479.69999999999993</v>
+        <v>259.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.055000000000000007</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="B3" s="0">
-        <v>33.066455269485182</v>
+        <v>32.688897728569515</v>
       </c>
       <c r="C3" s="0">
-        <v>16.156579950853445</v>
+        <v>16.053402040956303</v>
       </c>
       <c r="D3" s="0">
-        <v>0.48860937222270906</v>
+        <v>0.49109646260497536</v>
       </c>
       <c r="E3" s="0">
-        <v>29.433115708657851</v>
+        <v>29.284167669787479</v>
       </c>
       <c r="F3" s="0">
-        <v>14.019504130634449</v>
+        <v>14.342854163276687</v>
       </c>
       <c r="G3" s="0">
-        <v>0.47631736542626929</v>
+        <v>0.48978186182406791</v>
       </c>
       <c r="H3" s="0">
-        <v>271.30000000000001</v>
+        <v>295.5</v>
       </c>
       <c r="I3" s="0">
-        <v>240.10000000000002</v>
+        <v>261.92261422147703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.10000000000000001</v>
+        <v>19.333333333333332</v>
       </c>
       <c r="B4" s="0">
-        <v>33.428327833143939</v>
+        <v>32.747473419517192</v>
       </c>
       <c r="C4" s="0">
-        <v>16.04992266498996</v>
+        <v>16.212032154611954</v>
       </c>
       <c r="D4" s="0">
-        <v>0.48012939041110458</v>
+        <v>0.49506207538288227</v>
       </c>
       <c r="E4" s="0">
-        <v>29.85476044020924</v>
+        <v>29.324131732272356</v>
       </c>
       <c r="F4" s="0">
-        <v>14.995006254825931</v>
+        <v>14.483366473029875</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50226516755533002</v>
+        <v>0.49390606362234973</v>
       </c>
       <c r="H4" s="0">
-        <v>232.80000000000001</v>
+        <v>298.52709403803226</v>
       </c>
       <c r="I4" s="0">
-        <v>203.59999999999997</v>
+        <v>264.64071150531714</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>19.666666666666668</v>
       </c>
       <c r="B5" s="0">
-        <v>33.088328492050287</v>
+        <v>32.763562167474277</v>
       </c>
       <c r="C5" s="0">
-        <v>16.397656881706492</v>
+        <v>16.314595879832638</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49557223434982972</v>
+        <v>0.49794939257333876</v>
       </c>
       <c r="E5" s="0">
-        <v>29.890349386011486</v>
+        <v>29.325383018007706</v>
       </c>
       <c r="F5" s="0">
-        <v>14.804133988138128</v>
+        <v>14.49927552769352</v>
       </c>
       <c r="G5" s="0">
-        <v>0.4952813965790035</v>
+        <v>0.49442749030046818</v>
       </c>
       <c r="H5" s="0">
-        <v>301.5</v>
+        <v>300.5</v>
       </c>
       <c r="I5" s="0">
-        <v>268.5</v>
+        <v>265.42938982226548</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>20</v>
       </c>
       <c r="B6" s="0">
-        <v>33.098136840673291</v>
+        <v>32.807420928529716</v>
       </c>
       <c r="C6" s="0">
-        <v>16.487995235491564</v>
+        <v>16.291181932318644</v>
       </c>
       <c r="D6" s="0">
-        <v>0.4981547848104238</v>
+        <v>0.49657002809847944</v>
       </c>
       <c r="E6" s="0">
-        <v>29.944112402738824</v>
+        <v>29.344262227256216</v>
       </c>
       <c r="F6" s="0">
-        <v>14.895251916273288</v>
+        <v>14.583801195120969</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49743507892092009</v>
+        <v>0.49698987427855335</v>
       </c>
       <c r="H6" s="0">
-        <v>302.5</v>
+        <v>299.06489935018368</v>
       </c>
       <c r="I6" s="0">
-        <v>269</v>
+        <v>265.58113131378332</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>20.333333333333332</v>
       </c>
       <c r="B7" s="0">
-        <v>33.220313625917164</v>
+        <v>32.888238366592802</v>
       </c>
       <c r="C7" s="0">
-        <v>16.504306832279589</v>
+        <v>16.281074570046457</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49681369712908391</v>
+        <v>0.49504246437791688</v>
       </c>
       <c r="E7" s="0">
-        <v>29.887977165623333</v>
+        <v>29.408277772045878</v>
       </c>
       <c r="F7" s="0">
-        <v>14.864802335752783</v>
+        <v>14.623150022646076</v>
       </c>
       <c r="G7" s="0">
-        <v>0.49735056519147897</v>
+        <v>0.4972460521488325</v>
       </c>
       <c r="H7" s="0">
-        <v>303.5</v>
+        <v>300.04544405307939</v>
       </c>
       <c r="I7" s="0">
-        <v>270</v>
+        <v>267.40000000000009</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>20.666666666666668</v>
       </c>
       <c r="B8" s="0">
-        <v>33.405936678605471</v>
+        <v>32.963782116197898</v>
       </c>
       <c r="C8" s="0">
-        <v>16.460178870819522</v>
+        <v>16.220997127484704</v>
       </c>
       <c r="D8" s="0">
-        <v>0.4927321460607717</v>
+        <v>0.49208543698976687</v>
       </c>
       <c r="E8" s="0">
-        <v>29.841211148085293</v>
+        <v>29.454693300618722</v>
       </c>
       <c r="F8" s="0">
-        <v>14.830908706042106</v>
+        <v>14.682081115237203</v>
       </c>
       <c r="G8" s="0">
-        <v>0.4969941947880257</v>
+        <v>0.49846321485645184</v>
       </c>
       <c r="H8" s="0">
-        <v>304.5</v>
+        <v>300.91321517738714</v>
       </c>
       <c r="I8" s="0">
-        <v>270.5</v>
+        <v>267.9769840179917</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,86 @@
         <v>21</v>
       </c>
       <c r="B9" s="0">
-        <v>33.408287671207482</v>
+        <v>33.035784871712302</v>
       </c>
       <c r="C9" s="0">
-        <v>16.344611557934289</v>
+        <v>16.089195119477719</v>
       </c>
       <c r="D9" s="0">
-        <v>0.48923823090821533</v>
+        <v>0.4870232440959647</v>
       </c>
       <c r="E9" s="0">
-        <v>30.037327184764109</v>
+        <v>29.462138656345658</v>
       </c>
       <c r="F9" s="0">
-        <v>15.010912699352673</v>
+        <v>14.740520464315223</v>
       </c>
       <c r="G9" s="0">
-        <v>0.49974195796511106</v>
+        <v>0.50032078920857148</v>
       </c>
       <c r="H9" s="0">
-        <v>305</v>
+        <v>301.52839072249543</v>
       </c>
       <c r="I9" s="0">
-        <v>272</v>
+        <v>269.06218173680037</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.090000000000000011</v>
+      </c>
+      <c r="B10" s="0">
+        <v>33.332796427749976</v>
+      </c>
+      <c r="C10" s="0">
+        <v>15.690204794310942</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.47071372569415293</v>
+      </c>
+      <c r="E10" s="0">
+        <v>29.806605027105881</v>
+      </c>
+      <c r="F10" s="0">
+        <v>14.65412151055671</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.49164007431340712</v>
+      </c>
+      <c r="H10" s="0">
+        <v>239</v>
+      </c>
+      <c r="I10" s="0">
+        <v>209.62651492573076</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="B11" s="0">
+        <v>33.518925693789171</v>
+      </c>
+      <c r="C11" s="0">
+        <v>15.749316506318914</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.4698634034454498</v>
+      </c>
+      <c r="E11" s="0">
+        <v>29.905018401784837</v>
+      </c>
+      <c r="F11" s="0">
+        <v>15.029180968978293</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.5025638428659619</v>
+      </c>
+      <c r="H11" s="0">
+        <v>233.55118819170545</v>
+      </c>
+      <c r="I11" s="0">
+        <v>203.99441969176524</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/feed_temp_sweep_results.xlsx
+++ b/Graphs/feed_temp_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="81" uniqueCount="9">
   <si>
     <t>LH2 Feed temperature (K)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="21.59765625" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,57 +136,57 @@
         <v>18</v>
       </c>
       <c r="B2" s="0">
-        <v>32.660314121284053</v>
+        <v>32.638917232397006</v>
       </c>
       <c r="C2" s="0">
-        <v>15.937956516101927</v>
+        <v>15.956633399378651</v>
       </c>
       <c r="D2" s="0">
-        <v>0.4879915256453547</v>
+        <v>0.48888366258486921</v>
       </c>
       <c r="E2" s="0">
-        <v>29.293505996004292</v>
+        <v>29.265112821336281</v>
       </c>
       <c r="F2" s="0">
-        <v>14.207239143056405</v>
+        <v>13.839604957009769</v>
       </c>
       <c r="G2" s="0">
-        <v>0.48499620171768815</v>
+        <v>0.47290454820730249</v>
       </c>
       <c r="H2" s="0">
-        <v>292.94336223807994</v>
+        <v>293.05071870264157</v>
       </c>
       <c r="I2" s="0">
-        <v>259.5</v>
+        <v>254.42613563890495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>18.666666666666668</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="B3" s="0">
-        <v>32.688897728569515</v>
+        <v>32.664950236829171</v>
       </c>
       <c r="C3" s="0">
-        <v>16.053402040956303</v>
+        <v>16.028046787133196</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49109646260497536</v>
+        <v>0.49068027567548067</v>
       </c>
       <c r="E3" s="0">
-        <v>29.284167669787479</v>
+        <v>29.294838947155668</v>
       </c>
       <c r="F3" s="0">
-        <v>14.342854163276687</v>
+        <v>13.971856098170292</v>
       </c>
       <c r="G3" s="0">
-        <v>0.48978186182406791</v>
+        <v>0.47693916745450704</v>
       </c>
       <c r="H3" s="0">
-        <v>295.5</v>
+        <v>294.5778263489193</v>
       </c>
       <c r="I3" s="0">
-        <v>261.92261422147703</v>
+        <v>256.52146709628823</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>19.333333333333332</v>
       </c>
       <c r="B4" s="0">
-        <v>32.747473419517192</v>
+        <v>32.732897049391944</v>
       </c>
       <c r="C4" s="0">
-        <v>16.212032154611954</v>
+        <v>16.243463687453254</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49506207538288227</v>
+        <v>0.4962427756682477</v>
       </c>
       <c r="E4" s="0">
-        <v>29.324131732272356</v>
+        <v>29.247922929158747</v>
       </c>
       <c r="F4" s="0">
-        <v>14.483366473029875</v>
+        <v>14.31728063766308</v>
       </c>
       <c r="G4" s="0">
-        <v>0.49390606362234973</v>
+        <v>0.48951444081485362</v>
       </c>
       <c r="H4" s="0">
-        <v>298.52709403803226</v>
+        <v>298.46163078636863</v>
       </c>
       <c r="I4" s="0">
-        <v>264.64071150531714</v>
+        <v>262.5459888678115</v>
       </c>
     </row>
     <row r="5">

--- a/Graphs/feed_temp_sweep_results.xlsx
+++ b/Graphs/feed_temp_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="81" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
   <si>
     <t>LH2 Feed temperature (K)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>18</v>
       </c>
       <c r="B2" s="0">
-        <v>32.638917232397006</v>
+        <v>34.356244332988986</v>
       </c>
       <c r="C2" s="0">
-        <v>15.956633399378651</v>
+        <v>17.863705910508489</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48888366258486921</v>
+        <v>0.51995514228415518</v>
       </c>
       <c r="E2" s="0">
-        <v>29.265112821336281</v>
+        <v>31.504958138931855</v>
       </c>
       <c r="F2" s="0">
-        <v>13.839604957009769</v>
+        <v>15.263519623025079</v>
       </c>
       <c r="G2" s="0">
-        <v>0.47290454820730249</v>
+        <v>0.48447992077041924</v>
       </c>
       <c r="H2" s="0">
-        <v>293.05071870264157</v>
+        <v>325</v>
       </c>
       <c r="I2" s="0">
-        <v>254.42613563890495</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>18.333333333333332</v>
       </c>
       <c r="B3" s="0">
-        <v>32.664950236829171</v>
+        <v>34.269915958001135</v>
       </c>
       <c r="C3" s="0">
-        <v>16.028046787133196</v>
+        <v>17.745335177997813</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49068027567548067</v>
+        <v>0.51781087528038527</v>
       </c>
       <c r="E3" s="0">
-        <v>29.294838947155668</v>
+        <v>31.33940864288472</v>
       </c>
       <c r="F3" s="0">
-        <v>13.971856098170292</v>
+        <v>15.194396910206304</v>
       </c>
       <c r="G3" s="0">
-        <v>0.47693916745450704</v>
+        <v>0.48483355520034777</v>
       </c>
       <c r="H3" s="0">
-        <v>294.5778263489193</v>
+        <v>325</v>
       </c>
       <c r="I3" s="0">
-        <v>256.52146709628823</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>19.333333333333332</v>
       </c>
       <c r="B4" s="0">
-        <v>32.732897049391944</v>
+        <v>35.049378286964441</v>
       </c>
       <c r="C4" s="0">
-        <v>16.243463687453254</v>
+        <v>17.886832255256738</v>
       </c>
       <c r="D4" s="0">
-        <v>0.4962427756682477</v>
+        <v>0.51033236905971613</v>
       </c>
       <c r="E4" s="0">
-        <v>29.247922929158747</v>
+        <v>31.060175996716055</v>
       </c>
       <c r="F4" s="0">
-        <v>14.31728063766308</v>
+        <v>15.184306506217171</v>
       </c>
       <c r="G4" s="0">
-        <v>0.48951444081485362</v>
+        <v>0.48886736855008756</v>
       </c>
       <c r="H4" s="0">
-        <v>298.46163078636863</v>
+        <v>328</v>
       </c>
       <c r="I4" s="0">
-        <v>262.5459888678115</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>19.666666666666668</v>
       </c>
       <c r="B5" s="0">
-        <v>32.763562167474277</v>
+        <v>35.084376071755656</v>
       </c>
       <c r="C5" s="0">
-        <v>16.314595879832638</v>
+        <v>17.814761501970537</v>
       </c>
       <c r="D5" s="0">
-        <v>0.49794939257333876</v>
+        <v>0.50776908403715759</v>
       </c>
       <c r="E5" s="0">
-        <v>29.325383018007706</v>
+        <v>31.071112738746223</v>
       </c>
       <c r="F5" s="0">
-        <v>14.49927552769352</v>
+        <v>15.279167534403987</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49442749030046818</v>
+        <v>0.49174832143525382</v>
       </c>
       <c r="H5" s="0">
-        <v>300.5</v>
+        <v>329</v>
       </c>
       <c r="I5" s="0">
-        <v>265.42938982226548</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>20</v>
       </c>
       <c r="B6" s="0">
-        <v>32.807420928529716</v>
+        <v>34.953292098841374</v>
       </c>
       <c r="C6" s="0">
-        <v>16.291181932318644</v>
+        <v>17.767381951044431</v>
       </c>
       <c r="D6" s="0">
-        <v>0.49657002809847944</v>
+        <v>0.50831784029960891</v>
       </c>
       <c r="E6" s="0">
-        <v>29.344262227256216</v>
+        <v>31.177113745966082</v>
       </c>
       <c r="F6" s="0">
-        <v>14.583801195120969</v>
+        <v>15.445880782691894</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49698987427855335</v>
+        <v>0.49542369151122567</v>
       </c>
       <c r="H6" s="0">
-        <v>299.06489935018368</v>
+        <v>329</v>
       </c>
       <c r="I6" s="0">
-        <v>265.58113131378332</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>20.333333333333332</v>
       </c>
       <c r="B7" s="0">
-        <v>32.888238366592802</v>
+        <v>34.968477192031479</v>
       </c>
       <c r="C7" s="0">
-        <v>16.281074570046457</v>
+        <v>17.731601697129246</v>
       </c>
       <c r="D7" s="0">
-        <v>0.49504246437791688</v>
+        <v>0.50707388828387057</v>
       </c>
       <c r="E7" s="0">
-        <v>29.408277772045878</v>
+        <v>31.311073445228246</v>
       </c>
       <c r="F7" s="0">
-        <v>14.623150022646076</v>
+        <v>15.612652273719712</v>
       </c>
       <c r="G7" s="0">
-        <v>0.4972460521488325</v>
+        <v>0.4986303743635801</v>
       </c>
       <c r="H7" s="0">
-        <v>300.04544405307939</v>
+        <v>329</v>
       </c>
       <c r="I7" s="0">
-        <v>267.40000000000009</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>20.666666666666668</v>
       </c>
       <c r="B8" s="0">
-        <v>32.963782116197898</v>
+        <v>34.784729522275669</v>
       </c>
       <c r="C8" s="0">
-        <v>16.220997127484704</v>
+        <v>17.606874133555927</v>
       </c>
       <c r="D8" s="0">
-        <v>0.49208543698976687</v>
+        <v>0.50616676844592745</v>
       </c>
       <c r="E8" s="0">
-        <v>29.454693300618722</v>
+        <v>31.520444419367244</v>
       </c>
       <c r="F8" s="0">
-        <v>14.682081115237203</v>
+        <v>15.874985314542915</v>
       </c>
       <c r="G8" s="0">
-        <v>0.49846321485645184</v>
+        <v>0.50364091011320822</v>
       </c>
       <c r="H8" s="0">
-        <v>300.91321517738714</v>
+        <v>330</v>
       </c>
       <c r="I8" s="0">
-        <v>267.9769840179917</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9">

--- a/Graphs/feed_temp_sweep_results.xlsx
+++ b/Graphs/feed_temp_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="90" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
   <si>
     <t>LH2 Feed temperature (K)</t>
   </si>
@@ -85,21 +85,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,292 +133,205 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0">
-        <v>34.356244332988986</v>
+        <v>33.095563219977251</v>
       </c>
       <c r="C2" s="0">
-        <v>17.863705910508489</v>
+        <v>16.355836154333616</v>
       </c>
       <c r="D2" s="0">
-        <v>0.51995514228415518</v>
+        <v>0.4942002662296695</v>
       </c>
       <c r="E2" s="0">
-        <v>31.504958138931855</v>
+        <v>30.545443999034617</v>
       </c>
       <c r="F2" s="0">
-        <v>15.263519623025079</v>
+        <v>15.193642171746582</v>
       </c>
       <c r="G2" s="0">
-        <v>0.48447992077041924</v>
+        <v>0.49741107617315283</v>
       </c>
       <c r="H2" s="0">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="I2" s="0">
-        <v>235</v>
+        <v>244.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>18.333333333333332</v>
+        <v>19.333333333333332</v>
       </c>
       <c r="B3" s="0">
-        <v>34.269915958001135</v>
+        <v>33.362481965315069</v>
       </c>
       <c r="C3" s="0">
-        <v>17.745335177997813</v>
+        <v>16.392331159958186</v>
       </c>
       <c r="D3" s="0">
-        <v>0.51781087528038527</v>
+        <v>0.49134027789060447</v>
       </c>
       <c r="E3" s="0">
-        <v>31.33940864288472</v>
+        <v>30.51042036726961</v>
       </c>
       <c r="F3" s="0">
-        <v>15.194396910206304</v>
+        <v>15.228510631904864</v>
       </c>
       <c r="G3" s="0">
-        <v>0.48483355520034777</v>
+        <v>0.49912490383912955</v>
       </c>
       <c r="H3" s="0">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="I3" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>19.333333333333332</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="B4" s="0">
-        <v>35.049378286964441</v>
+        <v>33.168428809604031</v>
       </c>
       <c r="C4" s="0">
-        <v>17.886832255256738</v>
+        <v>16.270520779218486</v>
       </c>
       <c r="D4" s="0">
-        <v>0.51033236905971613</v>
+        <v>0.49054240321770387</v>
       </c>
       <c r="E4" s="0">
-        <v>31.060175996716055</v>
+        <v>30.588462556693997</v>
       </c>
       <c r="F4" s="0">
-        <v>15.184306506217171</v>
+        <v>15.398292664563142</v>
       </c>
       <c r="G4" s="0">
-        <v>0.48886736855008756</v>
+        <v>0.50340198158123417</v>
       </c>
       <c r="H4" s="0">
-        <v>328</v>
+        <v>280.5</v>
       </c>
       <c r="I4" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>19.666666666666668</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0">
-        <v>35.084376071755656</v>
+        <v>33.39462924544231</v>
       </c>
       <c r="C5" s="0">
-        <v>17.814761501970537</v>
+        <v>16.317367183436009</v>
       </c>
       <c r="D5" s="0">
-        <v>0.50776908403715759</v>
+        <v>0.48862249865112661</v>
       </c>
       <c r="E5" s="0">
-        <v>31.071112738746223</v>
+        <v>30.590676489596902</v>
       </c>
       <c r="F5" s="0">
-        <v>15.279167534403987</v>
+        <v>15.480958121910632</v>
       </c>
       <c r="G5" s="0">
-        <v>0.49174832143525382</v>
+        <v>0.50606785787085506</v>
       </c>
       <c r="H5" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I5" s="0">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>20</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="B6" s="0">
-        <v>34.953292098841374</v>
+        <v>33.2678267689408</v>
       </c>
       <c r="C6" s="0">
-        <v>17.767381951044431</v>
+        <v>16.227629189553213</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50831784029960891</v>
+        <v>0.48778747413412354</v>
       </c>
       <c r="E6" s="0">
-        <v>31.177113745966082</v>
+        <v>30.597854165636093</v>
       </c>
       <c r="F6" s="0">
-        <v>15.445880782691894</v>
+        <v>15.538208620600273</v>
       </c>
       <c r="G6" s="0">
-        <v>0.49542369151122567</v>
+        <v>0.50782020649183168</v>
       </c>
       <c r="H6" s="0">
-        <v>329</v>
+        <v>281.5</v>
       </c>
       <c r="I6" s="0">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>20.333333333333332</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="B7" s="0">
-        <v>34.968477192031479</v>
+        <v>33.591492447430042</v>
       </c>
       <c r="C7" s="0">
-        <v>17.731601697129246</v>
+        <v>16.267020765034481</v>
       </c>
       <c r="D7" s="0">
-        <v>0.50707388828387057</v>
+        <v>0.4842601379052156</v>
       </c>
       <c r="E7" s="0">
-        <v>31.311073445228246</v>
+        <v>30.583906111646158</v>
       </c>
       <c r="F7" s="0">
-        <v>15.612652273719712</v>
+        <v>15.653376320345275</v>
       </c>
       <c r="G7" s="0">
-        <v>0.4986303743635801</v>
+        <v>0.51181743310363381</v>
       </c>
       <c r="H7" s="0">
-        <v>329</v>
+        <v>282.5</v>
       </c>
       <c r="I7" s="0">
-        <v>238</v>
+        <v>248.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>20.666666666666668</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0">
-        <v>34.784729522275669</v>
+        <v>33.97471806169866</v>
       </c>
       <c r="C8" s="0">
-        <v>17.606874133555927</v>
+        <v>16.382507845422158</v>
       </c>
       <c r="D8" s="0">
-        <v>0.50616676844592745</v>
+        <v>0.48219702119885877</v>
       </c>
       <c r="E8" s="0">
-        <v>31.520444419367244</v>
+        <v>30.587847220921169</v>
       </c>
       <c r="F8" s="0">
-        <v>15.874985314542915</v>
+        <v>15.725943833282168</v>
       </c>
       <c r="G8" s="0">
-        <v>0.50364091011320822</v>
+        <v>0.5141239172440385</v>
       </c>
       <c r="H8" s="0">
-        <v>330</v>
+        <v>283.5</v>
       </c>
       <c r="I8" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>21</v>
-      </c>
-      <c r="B9" s="0">
-        <v>33.035784871712302</v>
-      </c>
-      <c r="C9" s="0">
-        <v>16.089195119477719</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.4870232440959647</v>
-      </c>
-      <c r="E9" s="0">
-        <v>29.462138656345658</v>
-      </c>
-      <c r="F9" s="0">
-        <v>14.740520464315223</v>
-      </c>
-      <c r="G9" s="0">
-        <v>0.50032078920857148</v>
-      </c>
-      <c r="H9" s="0">
-        <v>301.52839072249543</v>
-      </c>
-      <c r="I9" s="0">
-        <v>269.06218173680037</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.090000000000000011</v>
-      </c>
-      <c r="B10" s="0">
-        <v>33.332796427749976</v>
-      </c>
-      <c r="C10" s="0">
-        <v>15.690204794310942</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.47071372569415293</v>
-      </c>
-      <c r="E10" s="0">
-        <v>29.806605027105881</v>
-      </c>
-      <c r="F10" s="0">
-        <v>14.65412151055671</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0.49164007431340712</v>
-      </c>
-      <c r="H10" s="0">
-        <v>239</v>
-      </c>
-      <c r="I10" s="0">
-        <v>209.62651492573076</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="B11" s="0">
-        <v>33.518925693789171</v>
-      </c>
-      <c r="C11" s="0">
-        <v>15.749316506318914</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.4698634034454498</v>
-      </c>
-      <c r="E11" s="0">
-        <v>29.905018401784837</v>
-      </c>
-      <c r="F11" s="0">
-        <v>15.029180968978293</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0.5025638428659619</v>
-      </c>
-      <c r="H11" s="0">
-        <v>233.55118819170545</v>
-      </c>
-      <c r="I11" s="0">
-        <v>203.99441969176524</v>
+        <v>249.5</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/feed_temp_sweep_results.xlsx
+++ b/Graphs/feed_temp_sweep_results.xlsx
@@ -85,21 +85,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="21.59765625" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,205 +133,147 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>19</v>
+        <v>19.666666666666668</v>
       </c>
       <c r="B2" s="0">
-        <v>33.095563219977251</v>
+        <v>35.04032351038034</v>
       </c>
       <c r="C2" s="0">
-        <v>16.355836154333616</v>
+        <v>16.231858222872621</v>
       </c>
       <c r="D2" s="0">
-        <v>0.4942002662296695</v>
+        <v>0.46323368612918481</v>
       </c>
       <c r="E2" s="0">
-        <v>30.545443999034617</v>
+        <v>30.852284433527771</v>
       </c>
       <c r="F2" s="0">
-        <v>15.193642171746582</v>
+        <v>15.384093882288498</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49741107617315283</v>
+        <v>0.49863710790797416</v>
       </c>
       <c r="H2" s="0">
-        <v>279</v>
+        <v>338.5</v>
       </c>
       <c r="I2" s="0">
-        <v>244.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>19.333333333333332</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0">
-        <v>33.362481965315069</v>
+        <v>34.902943652677102</v>
       </c>
       <c r="C3" s="0">
-        <v>16.392331159958186</v>
+        <v>16.086617324795494</v>
       </c>
       <c r="D3" s="0">
-        <v>0.49134027789060447</v>
+        <v>0.46089571942341401</v>
       </c>
       <c r="E3" s="0">
-        <v>30.51042036726961</v>
+        <v>30.945583760443384</v>
       </c>
       <c r="F3" s="0">
-        <v>15.228510631904864</v>
+        <v>15.53188159928167</v>
       </c>
       <c r="G3" s="0">
-        <v>0.49912490383912955</v>
+        <v>0.50190947178496959</v>
       </c>
       <c r="H3" s="0">
-        <v>280</v>
+        <v>338.5</v>
       </c>
       <c r="I3" s="0">
-        <v>245</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>19.666666666666668</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="B4" s="0">
-        <v>33.168428809604031</v>
+        <v>34.857898045619052</v>
       </c>
       <c r="C4" s="0">
-        <v>16.270520779218486</v>
+        <v>16.020459884686485</v>
       </c>
       <c r="D4" s="0">
-        <v>0.49054240321770387</v>
+        <v>0.45959340014478983</v>
       </c>
       <c r="E4" s="0">
-        <v>30.588462556693997</v>
+        <v>30.688092077873662</v>
       </c>
       <c r="F4" s="0">
-        <v>15.398292664563142</v>
+        <v>15.376184041738826</v>
       </c>
       <c r="G4" s="0">
-        <v>0.50340198158123417</v>
+        <v>0.50104724668840417</v>
       </c>
       <c r="H4" s="0">
-        <v>280.5</v>
+        <v>338.5</v>
       </c>
       <c r="I4" s="0">
-        <v>246</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>20</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="B5" s="0">
-        <v>33.39462924544231</v>
+        <v>35.200687735180587</v>
       </c>
       <c r="C5" s="0">
-        <v>16.317367183436009</v>
+        <v>16.312034440770624</v>
       </c>
       <c r="D5" s="0">
-        <v>0.48862249865112661</v>
+        <v>0.46340101544288592</v>
       </c>
       <c r="E5" s="0">
-        <v>30.590676489596902</v>
+        <v>30.783000945710121</v>
       </c>
       <c r="F5" s="0">
-        <v>15.480958121910632</v>
+        <v>15.567488620729911</v>
       </c>
       <c r="G5" s="0">
-        <v>0.50606785787085506</v>
+        <v>0.50571705624754482</v>
       </c>
       <c r="H5" s="0">
-        <v>281.5</v>
+        <v>339</v>
       </c>
       <c r="I5" s="0">
-        <v>247</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>20.333333333333332</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0">
-        <v>33.2678267689408</v>
+        <v>35.033508679927444</v>
       </c>
       <c r="C6" s="0">
-        <v>16.227629189553213</v>
+        <v>16.160582229612039</v>
       </c>
       <c r="D6" s="0">
-        <v>0.48778747413412354</v>
+        <v>0.46128928670142866</v>
       </c>
       <c r="E6" s="0">
-        <v>30.597854165636093</v>
+        <v>30.915992372112548</v>
       </c>
       <c r="F6" s="0">
-        <v>15.538208620600273</v>
+        <v>15.759909400937874</v>
       </c>
       <c r="G6" s="0">
-        <v>0.50782020649183168</v>
+        <v>0.50976559999264126</v>
       </c>
       <c r="H6" s="0">
-        <v>281.5</v>
+        <v>339</v>
       </c>
       <c r="I6" s="0">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>20.666666666666668</v>
-      </c>
-      <c r="B7" s="0">
-        <v>33.591492447430042</v>
-      </c>
-      <c r="C7" s="0">
-        <v>16.267020765034481</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.4842601379052156</v>
-      </c>
-      <c r="E7" s="0">
-        <v>30.583906111646158</v>
-      </c>
-      <c r="F7" s="0">
-        <v>15.653376320345275</v>
-      </c>
-      <c r="G7" s="0">
-        <v>0.51181743310363381</v>
-      </c>
-      <c r="H7" s="0">
-        <v>282.5</v>
-      </c>
-      <c r="I7" s="0">
-        <v>248.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>21</v>
-      </c>
-      <c r="B8" s="0">
-        <v>33.97471806169866</v>
-      </c>
-      <c r="C8" s="0">
-        <v>16.382507845422158</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.48219702119885877</v>
-      </c>
-      <c r="E8" s="0">
-        <v>30.587847220921169</v>
-      </c>
-      <c r="F8" s="0">
-        <v>15.725943833282168</v>
-      </c>
-      <c r="G8" s="0">
-        <v>0.5141239172440385</v>
-      </c>
-      <c r="H8" s="0">
-        <v>283.5</v>
-      </c>
-      <c r="I8" s="0">
-        <v>249.5</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
